--- a/static/schedule/Pасписание/Изменения на 11 марта 2024 понедельник.xlsx
+++ b/static/schedule/Pасписание/Изменения на 11 марта 2024 понедельник.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="123">
   <si>
     <t>Согласовано:</t>
   </si>
@@ -442,6 +442,12 @@
   <si>
     <t>Стандартизация, сертификация и техническое документоведение
 Буркова Т.А.</t>
+  </si>
+  <si>
+    <t>Организационное собрание в 10:00</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -1202,19 +1208,16 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="24" fillId="24" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="24" fillId="24" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1223,13 +1226,10 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1242,36 +1242,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="26" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1280,10 +1250,46 @@
     <xf numFmtId="49" fontId="22" fillId="26" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="24" fillId="24" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="24" fillId="24" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1647,8 +1653,8 @@
   </sheetPr>
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,24 +1691,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="3"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="2"/>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1744,94 +1750,94 @@
       <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="38" t="s">
         <v>70</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>45</v>
       </c>
       <c r="I3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="38" t="s">
         <v>57</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="38" t="s">
         <v>54</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="38" t="s">
         <v>70</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="48" t="s">
         <v>84</v>
       </c>
       <c r="Q3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="48" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="22"/>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="40"/>
+      <c r="L4" s="39"/>
       <c r="M4" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="40"/>
+      <c r="N4" s="39"/>
       <c r="O4" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="51"/>
+      <c r="P4" s="49"/>
       <c r="Q4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="R4" s="51"/>
+      <c r="R4" s="49"/>
     </row>
     <row r="5" spans="1:18" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1946,7 +1952,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -1955,71 +1961,71 @@
       <c r="C7" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="38" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="50" t="s">
+      <c r="H7" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="38" t="s">
         <v>51</v>
       </c>
       <c r="M7" s="20"/>
-      <c r="N7" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="46" t="s">
+      <c r="N7" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="58" t="s">
+      <c r="P7" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="44" t="s">
+      <c r="Q7" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="40"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="40"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="40"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -2152,7 +2158,7 @@
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -2161,89 +2167,89 @@
       <c r="C12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="38" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="38" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="38" t="s">
         <v>37</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="38" t="s">
         <v>44</v>
       </c>
       <c r="M12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="38" t="s">
         <v>37</v>
       </c>
       <c r="O12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="P12" s="38" t="s">
         <v>37</v>
       </c>
       <c r="Q12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="R12" s="54" t="s">
+      <c r="R12" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="40"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="40"/>
+      <c r="L13" s="39"/>
       <c r="M13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="40"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="40"/>
+      <c r="P13" s="39"/>
       <c r="Q13" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="R13" s="55"/>
+      <c r="R13" s="35"/>
     </row>
     <row r="14" spans="1:18" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -2358,86 +2364,86 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="38" t="s">
         <v>70</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="46" t="s">
+      <c r="M16" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="38" t="s">
         <v>80</v>
       </c>
       <c r="O16" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="50" t="s">
+      <c r="P16" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="Q16" s="48" t="s">
+      <c r="Q16" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="R16" s="39" t="s">
+      <c r="R16" s="38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="40"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="40"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="39"/>
     </row>
     <row r="18" spans="1:19" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -2582,90 +2588,90 @@
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>37</v>
+      <c r="C21" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="38" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="38" t="s">
         <v>43</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="52" t="s">
+      <c r="J21" s="36" t="s">
         <v>37</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" s="36" t="s">
+      <c r="L21" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="P21" s="50" t="s">
-        <v>37</v>
+      <c r="N21" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="48" t="s">
+        <v>122</v>
       </c>
       <c r="Q21" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="R21" s="54" t="s">
+      <c r="R21" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="40"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="40"/>
+      <c r="F22" s="39"/>
       <c r="G22" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="40"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="53"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="20"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="51"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="49"/>
       <c r="Q22" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="R22" s="55"/>
+      <c r="R22" s="35"/>
     </row>
     <row r="23" spans="1:19" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -2768,80 +2774,80 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="20"/>
-      <c r="D25" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="44" t="s">
+      <c r="D25" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="39" t="s">
+      <c r="I25" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="38" t="s">
         <v>37</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="52" t="s">
+      <c r="L25" s="36" t="s">
         <v>44</v>
       </c>
       <c r="M25" s="20"/>
-      <c r="N25" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" s="46" t="s">
+      <c r="N25" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="R25" s="52" t="s">
+      <c r="R25" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="20"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="40"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="39"/>
       <c r="K26" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="L26" s="53"/>
+      <c r="L26" s="37"/>
       <c r="M26" s="20"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="53"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="37"/>
       <c r="S26" s="19"/>
     </row>
     <row r="27" spans="1:19" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2987,7 +2993,7 @@
       <c r="R29" s="6"/>
     </row>
     <row r="30" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="28" t="s">
@@ -2996,73 +3002,73 @@
       <c r="C30" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="38" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="38" t="s">
         <v>80</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="52" t="s">
+      <c r="H30" s="36" t="s">
         <v>43</v>
       </c>
       <c r="I30" s="20"/>
-      <c r="J30" s="39" t="s">
+      <c r="J30" s="38" t="s">
         <v>37</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="L30" s="39" t="s">
+      <c r="L30" s="38" t="s">
         <v>37</v>
       </c>
       <c r="M30" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="39" t="s">
+      <c r="N30" s="38" t="s">
         <v>37</v>
       </c>
       <c r="O30" s="20"/>
-      <c r="P30" s="54"/>
+      <c r="P30" s="34"/>
       <c r="Q30" s="20"/>
-      <c r="R30" s="54"/>
+      <c r="R30" s="34"/>
     </row>
     <row r="31" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="40"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="H31" s="53"/>
+      <c r="H31" s="37"/>
       <c r="I31" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="40"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="20"/>
-      <c r="L31" s="40"/>
+      <c r="L31" s="39"/>
       <c r="M31" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N31" s="40"/>
+      <c r="N31" s="39"/>
       <c r="O31" s="20"/>
-      <c r="P31" s="55"/>
+      <c r="P31" s="35"/>
       <c r="Q31" s="20"/>
-      <c r="R31" s="55"/>
+      <c r="R31" s="35"/>
     </row>
     <row r="32" spans="1:19" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
@@ -3161,74 +3167,74 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="52" t="s">
+      <c r="F34" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="54" t="s">
+      <c r="G34" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="38" t="s">
         <v>43</v>
       </c>
       <c r="I34" s="23"/>
-      <c r="J34" s="39" t="s">
+      <c r="J34" s="38" t="s">
         <v>37</v>
       </c>
       <c r="K34" s="32"/>
-      <c r="L34" s="39"/>
+      <c r="L34" s="38"/>
       <c r="M34" s="31"/>
-      <c r="N34" s="39"/>
+      <c r="N34" s="38"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="52" t="s">
+      <c r="P34" s="36" t="s">
         <v>37</v>
       </c>
       <c r="Q34" s="11"/>
-      <c r="R34" s="58" t="s">
+      <c r="R34" s="46" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="40"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="40"/>
+      <c r="J35" s="39"/>
       <c r="K35" s="25"/>
-      <c r="L35" s="40"/>
+      <c r="L35" s="39"/>
       <c r="M35" s="20"/>
-      <c r="N35" s="40"/>
+      <c r="N35" s="39"/>
       <c r="O35" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="P35" s="53"/>
+      <c r="P35" s="37"/>
       <c r="Q35" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R35" s="59"/>
+      <c r="R35" s="47"/>
     </row>
     <row r="36" spans="1:18" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -3330,30 +3336,51 @@
     <row r="56" ht="54" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C34:C35"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="R34:R35"/>
     <mergeCell ref="P34:P35"/>
@@ -3366,67 +3393,46 @@
     <mergeCell ref="O25:O26"/>
     <mergeCell ref="P30:P31"/>
     <mergeCell ref="N30:N31"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="P21:P22"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="P16:P17"/>
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L12:L13"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J16:J17"/>
     <mergeCell ref="H16:H17"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="H12:H13"/>
-    <mergeCell ref="K7:K8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.19685039370078741" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.19685039370078741"/>
